--- a/config/setting.xlsx
+++ b/config/setting.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28502"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19001"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yutao/workspace/cocos/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Coding\cysh5\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="16220" yWindow="840" windowWidth="27760" windowHeight="15600" tabRatio="500"/>
+    <workbookView xWindow="16215" yWindow="840" windowWidth="27765" windowHeight="15600" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -64,8 +64,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -113,6 +113,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -380,20 +383,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -401,7 +404,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -409,7 +412,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -417,7 +420,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -425,7 +428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -433,7 +436,7 @@
         <v>1518537600</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>7</v>
       </c>
